--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_12_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_12_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52219.87462788756</v>
+        <v>10391755.05094961</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52219.87462788756</v>
+        <v>10391755.05094961</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2178.350667529425</v>
+        <v>336861.6724461669</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2178.350667529425</v>
+        <v>336861.6724461669</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1342350134.397611</v>
+        <v>54815074.56133299</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11120.45029545961</v>
+        <v>1215714.692863539</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21515.61947341714</v>
+        <v>2317669.603154558</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31910.78865137466</v>
+        <v>3419624.51344558</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42692.18311848224</v>
+        <v>4534628.034645692</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>53408.00667649892</v>
+        <v>5636582.944936714</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>64123.83023451559</v>
+        <v>6738537.855227734</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>74839.65379253226</v>
+        <v>7840492.76551875</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>85555.47735054893</v>
+        <v>8942447.675809765</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>96271.30090856561</v>
+        <v>10044402.58610078</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>106987.1244665823</v>
+        <v>11146357.4963918</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>117702.9480245989</v>
+        <v>12248312.40668282</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>128062.5432325534</v>
+        <v>13337218.70606476</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>138487.7093495987</v>
+        <v>14439173.61635579</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>149312.2218238632</v>
+        <v>15482177.73396873</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>160136.7342981277</v>
+        <v>16525181.85158169</v>
       </c>
     </row>
   </sheetData>
